--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.1696087894608</v>
+        <v>73.8123324411687</v>
       </c>
       <c r="C2" t="n">
-        <v>71.7310680897474</v>
+        <v>72.4428629180903</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6081494891742</v>
+        <v>75.1818019642471</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -445,10 +448,10 @@
         <v>77.7462487235327</v>
       </c>
       <c r="C3" t="n">
-        <v>75.7123318323848</v>
+        <v>75.6342837447968</v>
       </c>
       <c r="D3" t="n">
-        <v>79.7801656146807</v>
+        <v>79.8582137022687</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -595,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>83.8567662269365</v>
+        <v>76.7012263087234</v>
       </c>
       <c r="C12" t="n">
-        <v>79.7610338864347</v>
+        <v>71.8854099155202</v>
       </c>
       <c r="D12" t="n">
-        <v>87.9524985674384</v>
+        <v>81.5170427019267</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>67.27806591895</v>
+        <v>83.8567662269365</v>
       </c>
       <c r="C13" t="n">
-        <v>64.3223230933903</v>
+        <v>79.7610338864347</v>
       </c>
       <c r="D13" t="n">
-        <v>70.2338087445097</v>
+        <v>87.9524985674384</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>69.0992575670915</v>
+        <v>67.27806591895</v>
       </c>
       <c r="C14" t="n">
-        <v>67.6011396727005</v>
+        <v>64.3223230933903</v>
       </c>
       <c r="D14" t="n">
-        <v>70.5973754614825</v>
+        <v>70.2338087445097</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>71.4499257805162</v>
+        <v>69.3940372488163</v>
       </c>
       <c r="C15" t="n">
-        <v>69.2371289757409</v>
+        <v>67.9565633795862</v>
       </c>
       <c r="D15" t="n">
-        <v>73.6627225852914</v>
+        <v>70.8315111180464</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>72.1070134661706</v>
+        <v>71.4499257805162</v>
       </c>
       <c r="C16" t="n">
-        <v>66.9003210364828</v>
+        <v>69.1522166769223</v>
       </c>
       <c r="D16" t="n">
-        <v>77.3137058958585</v>
+        <v>73.7476348841101</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>72.6487986982464</v>
+        <v>72.1070134661706</v>
       </c>
       <c r="C17" t="n">
-        <v>68.0505028298208</v>
+        <v>66.9003210364828</v>
       </c>
       <c r="D17" t="n">
-        <v>77.2470945666719</v>
+        <v>77.3137058958585</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>81.4559369018766</v>
+        <v>72.6487986982464</v>
       </c>
       <c r="C18" t="n">
-        <v>76.2487277219821</v>
+        <v>68.0505028298208</v>
       </c>
       <c r="D18" t="n">
-        <v>86.663146081771</v>
+        <v>77.2470945666719</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>66.0300971183849</v>
+        <v>81.4559369018766</v>
       </c>
       <c r="C19" t="n">
-        <v>58.9727226802876</v>
+        <v>76.2487277219821</v>
       </c>
       <c r="D19" t="n">
-        <v>73.0874715564823</v>
+        <v>86.663146081771</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.4985235226275</v>
+        <v>66.0300971183849</v>
       </c>
       <c r="C20" t="n">
-        <v>61.9953384240454</v>
+        <v>58.9727226802876</v>
       </c>
       <c r="D20" t="n">
-        <v>75.0017086212096</v>
+        <v>73.0874715564823</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>70.015186642168</v>
+        <v>68.4985235226275</v>
       </c>
       <c r="C21" t="n">
-        <v>64.6317918229005</v>
+        <v>61.9953384240454</v>
       </c>
       <c r="D21" t="n">
-        <v>75.3985814614355</v>
+        <v>75.0017086212096</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>56.3494745997933</v>
+        <v>70.015186642168</v>
       </c>
       <c r="C22" t="n">
-        <v>48.5417962203827</v>
+        <v>64.6317918229005</v>
       </c>
       <c r="D22" t="n">
-        <v>64.1571529792038</v>
+        <v>75.3985814614355</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>66.1124008610309</v>
+        <v>56.3494745997933</v>
       </c>
       <c r="C23" t="n">
-        <v>62.5140000997257</v>
+        <v>48.5417962203827</v>
       </c>
       <c r="D23" t="n">
-        <v>69.7108016223361</v>
+        <v>64.1571529792038</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>83.6736163847433</v>
+        <v>66.1124008610309</v>
       </c>
       <c r="C24" t="n">
-        <v>79.7506898985947</v>
+        <v>62.5140000997257</v>
       </c>
       <c r="D24" t="n">
-        <v>87.596542870892</v>
+        <v>69.7108016223361</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>66.5720535998459</v>
+        <v>71.2098345531307</v>
       </c>
       <c r="C25" t="n">
-        <v>63.6394340562584</v>
+        <v>65.9985935212069</v>
       </c>
       <c r="D25" t="n">
-        <v>69.5046731434335</v>
+        <v>76.4210755850544</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>67.3528186512436</v>
+        <v>83.6736163847433</v>
       </c>
       <c r="C26" t="n">
-        <v>65.8419942989636</v>
+        <v>79.7506898985947</v>
       </c>
       <c r="D26" t="n">
-        <v>68.8636430035236</v>
+        <v>87.596542870892</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>71.5415272565547</v>
+        <v>66.5720535998459</v>
       </c>
       <c r="C27" t="n">
-        <v>69.311795385807</v>
+        <v>63.6394340562584</v>
       </c>
       <c r="D27" t="n">
-        <v>73.7712591273023</v>
+        <v>69.5046731434335</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>72.6710446733236</v>
+        <v>68.3248627434602</v>
       </c>
       <c r="C28" t="n">
-        <v>67.0329198414111</v>
+        <v>66.8757239777642</v>
       </c>
       <c r="D28" t="n">
-        <v>78.3091695052361</v>
+        <v>69.7740015091562</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>69.6986163471128</v>
+        <v>71.5415272565547</v>
       </c>
       <c r="C29" t="n">
-        <v>64.7552549988317</v>
+        <v>69.2262332327499</v>
       </c>
       <c r="D29" t="n">
-        <v>74.641977695394</v>
+        <v>73.8568212803595</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>81.5418454105147</v>
+        <v>72.6710446733236</v>
       </c>
       <c r="C30" t="n">
-        <v>77.0298013861814</v>
+        <v>67.0329198414111</v>
       </c>
       <c r="D30" t="n">
-        <v>86.0538894348479</v>
+        <v>78.3091695052361</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>57.3284758980314</v>
+        <v>69.6986163471128</v>
       </c>
       <c r="C31" t="n">
-        <v>49.6406453132361</v>
+        <v>64.7552549988317</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0163064828266</v>
+        <v>74.641977695394</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>76.571814889122</v>
+        <v>81.5418454105147</v>
       </c>
       <c r="C32" t="n">
-        <v>70.6117495638275</v>
+        <v>77.0298013861814</v>
       </c>
       <c r="D32" t="n">
-        <v>82.5318802144165</v>
+        <v>86.0538894348479</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>68.3190222935995</v>
+        <v>57.3284758980314</v>
       </c>
       <c r="C33" t="n">
-        <v>62.7725189461338</v>
+        <v>49.6406453132361</v>
       </c>
       <c r="D33" t="n">
-        <v>73.8655256410651</v>
+        <v>65.0163064828266</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>60.7691968998979</v>
+        <v>76.571814889122</v>
       </c>
       <c r="C34" t="n">
-        <v>53.2964286332663</v>
+        <v>70.6117495638275</v>
       </c>
       <c r="D34" t="n">
-        <v>68.2419651665295</v>
+        <v>82.5318802144165</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>60.6538516747124</v>
+        <v>68.3190222935995</v>
       </c>
       <c r="C35" t="n">
-        <v>56.9259111201555</v>
+        <v>62.7725189461338</v>
       </c>
       <c r="D35" t="n">
-        <v>64.3817922292692</v>
+        <v>73.8655256410651</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>82.5079657388237</v>
+        <v>60.7691968998979</v>
       </c>
       <c r="C36" t="n">
-        <v>78.5050343978621</v>
+        <v>53.2964286332663</v>
       </c>
       <c r="D36" t="n">
-        <v>86.5108970797853</v>
+        <v>68.2419651665295</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60.6538516747124</v>
+      </c>
+      <c r="C37" t="n">
+        <v>56.9259111201555</v>
+      </c>
+      <c r="D37" t="n">
+        <v>64.3817922292692</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>74.6562529752133</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.5338149429292</v>
+      </c>
+      <c r="D38" t="n">
+        <v>79.7786910074974</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
+        <v>82.5079657388237</v>
+      </c>
+      <c r="C39" t="n">
+        <v>78.5050343978621</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.5108970797853</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
         <v>63.6764868365015</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>60.7465288933683</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>66.6064447796347</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -428,13 +428,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8123324411687</v>
+        <v>73.8610351305732</v>
       </c>
       <c r="C2" t="n">
-        <v>72.4428629180903</v>
+        <v>72.5008958144439</v>
       </c>
       <c r="D2" t="n">
-        <v>75.1818019642471</v>
+        <v>75.2211744467024</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -448,10 +448,10 @@
         <v>77.7462487235327</v>
       </c>
       <c r="C3" t="n">
-        <v>75.6342837447968</v>
+        <v>75.6468093962197</v>
       </c>
       <c r="D3" t="n">
-        <v>79.8582137022687</v>
+        <v>79.8456880508458</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -581,13 +581,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>72.4725456010075</v>
+        <v>72.4772494650826</v>
       </c>
       <c r="C11" t="n">
-        <v>69.1022275373226</v>
+        <v>69.1071100070964</v>
       </c>
       <c r="D11" t="n">
-        <v>75.8428636646923</v>
+        <v>75.8473889230687</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -598,13 +598,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>76.7012263087234</v>
+        <v>77.191348422519</v>
       </c>
       <c r="C12" t="n">
-        <v>71.8854099155202</v>
+        <v>72.7701077063205</v>
       </c>
       <c r="D12" t="n">
-        <v>81.5170427019267</v>
+        <v>81.6125891387176</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -632,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>67.27806591895</v>
+        <v>67.3083606323479</v>
       </c>
       <c r="C14" t="n">
-        <v>64.3223230933903</v>
+        <v>64.3592136887325</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2338087445097</v>
+        <v>70.2575075759634</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -649,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>69.3940372488163</v>
+        <v>69.2201376910046</v>
       </c>
       <c r="C15" t="n">
-        <v>67.9565633795862</v>
+        <v>67.7922840724785</v>
       </c>
       <c r="D15" t="n">
-        <v>70.8315111180464</v>
+        <v>70.6479913095308</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -669,10 +669,10 @@
         <v>71.4499257805162</v>
       </c>
       <c r="C16" t="n">
-        <v>69.1522166769223</v>
+        <v>69.1658439404388</v>
       </c>
       <c r="D16" t="n">
-        <v>73.7476348841101</v>
+        <v>73.7340076205935</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -802,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>66.1124008610309</v>
+        <v>66.1253305020267</v>
       </c>
       <c r="C24" t="n">
-        <v>62.5140000997257</v>
+        <v>62.5272644956226</v>
       </c>
       <c r="D24" t="n">
-        <v>69.7108016223361</v>
+        <v>69.7233965084307</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -819,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>71.2098345531307</v>
+        <v>69.496882977473</v>
       </c>
       <c r="C25" t="n">
-        <v>65.9985935212069</v>
+        <v>64.6384824294078</v>
       </c>
       <c r="D25" t="n">
-        <v>76.4210755850544</v>
+        <v>74.3552835255383</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -853,13 +853,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>66.5720535998459</v>
+        <v>66.5790404538871</v>
       </c>
       <c r="C27" t="n">
-        <v>63.6394340562584</v>
+        <v>63.6524209290054</v>
       </c>
       <c r="D27" t="n">
-        <v>69.5046731434335</v>
+        <v>69.5056599787687</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -870,13 +870,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>68.3248627434602</v>
+        <v>68.2230493525959</v>
       </c>
       <c r="C28" t="n">
-        <v>66.8757239777642</v>
+        <v>66.7801873237022</v>
       </c>
       <c r="D28" t="n">
-        <v>69.7740015091562</v>
+        <v>69.6659113814897</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -890,10 +890,10 @@
         <v>71.5415272565547</v>
       </c>
       <c r="C29" t="n">
-        <v>69.2262332327499</v>
+        <v>69.2399647889905</v>
       </c>
       <c r="D29" t="n">
-        <v>73.8568212803595</v>
+        <v>73.8430897241188</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>60.6538516747124</v>
+        <v>60.6507362007239</v>
       </c>
       <c r="C37" t="n">
-        <v>56.9259111201555</v>
+        <v>56.9227438052566</v>
       </c>
       <c r="D37" t="n">
-        <v>64.3817922292692</v>
+        <v>64.3787285961912</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1040,13 +1040,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>74.6562529752133</v>
+        <v>73.8494994443583</v>
       </c>
       <c r="C38" t="n">
-        <v>69.5338149429292</v>
+        <v>68.9888192472245</v>
       </c>
       <c r="D38" t="n">
-        <v>79.7786910074974</v>
+        <v>78.7101796414921</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1074,13 +1074,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>63.6764868365015</v>
+        <v>63.6399135871967</v>
       </c>
       <c r="C40" t="n">
-        <v>60.7465288933683</v>
+        <v>60.7151665904094</v>
       </c>
       <c r="D40" t="n">
-        <v>66.6064447796347</v>
+        <v>66.5646605839841</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -428,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8610351305732</v>
+        <v>73.8161485502559</v>
       </c>
       <c r="C2" t="n">
-        <v>72.5008958144439</v>
+        <v>72.4542861110033</v>
       </c>
       <c r="D2" t="n">
-        <v>75.2211744467024</v>
+        <v>75.1780109895084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -448,10 +445,10 @@
         <v>77.7462487235327</v>
       </c>
       <c r="C3" t="n">
-        <v>75.6468093962197</v>
+        <v>75.6462846457027</v>
       </c>
       <c r="D3" t="n">
-        <v>79.8456880508458</v>
+        <v>79.8462128013628</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -598,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>77.191348422519</v>
+        <v>76.7816309654674</v>
       </c>
       <c r="C12" t="n">
-        <v>72.7701077063205</v>
+        <v>72.3067698657709</v>
       </c>
       <c r="D12" t="n">
-        <v>81.6125891387176</v>
+        <v>81.2564920651638</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -615,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>83.8567662269365</v>
+        <v>67.3083606323479</v>
       </c>
       <c r="C13" t="n">
-        <v>79.7610338864347</v>
+        <v>64.3592136887325</v>
       </c>
       <c r="D13" t="n">
-        <v>87.9524985674384</v>
+        <v>70.2575075759634</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,220 +626,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>67.3083606323479</v>
+        <v>69.211130206042</v>
       </c>
       <c r="C14" t="n">
-        <v>64.3592136887325</v>
+        <v>67.7830711918507</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2575075759634</v>
+        <v>70.6391892202333</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>69.2201376910046</v>
+        <v>71.4499257805162</v>
       </c>
       <c r="C15" t="n">
-        <v>67.7922840724785</v>
+        <v>69.1652730389077</v>
       </c>
       <c r="D15" t="n">
-        <v>70.6479913095308</v>
+        <v>73.7345785221246</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>71.4499257805162</v>
+        <v>72.1070134661706</v>
       </c>
       <c r="C16" t="n">
-        <v>69.1658439404388</v>
+        <v>66.9003210364828</v>
       </c>
       <c r="D16" t="n">
-        <v>73.7340076205935</v>
+        <v>77.3137058958585</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>72.1070134661706</v>
+        <v>72.6487986982464</v>
       </c>
       <c r="C17" t="n">
-        <v>66.9003210364828</v>
+        <v>68.0505028298208</v>
       </c>
       <c r="D17" t="n">
-        <v>77.3137058958585</v>
+        <v>77.2470945666719</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>72.6487986982464</v>
+        <v>81.4559369018766</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0505028298208</v>
+        <v>76.2487277219821</v>
       </c>
       <c r="D18" t="n">
-        <v>77.2470945666719</v>
+        <v>86.663146081771</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>81.4559369018766</v>
+        <v>66.0300971183849</v>
       </c>
       <c r="C19" t="n">
-        <v>76.2487277219821</v>
+        <v>58.9727226802876</v>
       </c>
       <c r="D19" t="n">
-        <v>86.663146081771</v>
+        <v>73.0874715564823</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>66.0300971183849</v>
+        <v>68.4985235226275</v>
       </c>
       <c r="C20" t="n">
-        <v>58.9727226802876</v>
+        <v>61.9953384240454</v>
       </c>
       <c r="D20" t="n">
-        <v>73.0874715564823</v>
+        <v>75.0017086212096</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>68.4985235226275</v>
+        <v>70.015186642168</v>
       </c>
       <c r="C21" t="n">
-        <v>61.9953384240454</v>
+        <v>64.6317918229005</v>
       </c>
       <c r="D21" t="n">
-        <v>75.0017086212096</v>
+        <v>75.3985814614355</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>70.015186642168</v>
+        <v>56.3494745997933</v>
       </c>
       <c r="C22" t="n">
-        <v>64.6317918229005</v>
+        <v>48.5417962203827</v>
       </c>
       <c r="D22" t="n">
-        <v>75.3985814614355</v>
+        <v>64.1571529792038</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>56.3494745997933</v>
+        <v>66.1253305020267</v>
       </c>
       <c r="C23" t="n">
-        <v>48.5417962203827</v>
+        <v>62.5272644956226</v>
       </c>
       <c r="D23" t="n">
-        <v>64.1571529792038</v>
+        <v>69.7233965084307</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>66.1253305020267</v>
+        <v>69.4644695949361</v>
       </c>
       <c r="C24" t="n">
-        <v>62.5272644956226</v>
+        <v>64.5975635112594</v>
       </c>
       <c r="D24" t="n">
-        <v>69.7233965084307</v>
+        <v>74.3313756786127</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>69.496882977473</v>
+        <v>66.5790404538871</v>
       </c>
       <c r="C25" t="n">
-        <v>64.6384824294078</v>
+        <v>63.6524209290054</v>
       </c>
       <c r="D25" t="n">
-        <v>74.3552835255383</v>
+        <v>69.5056599787687</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>83.6736163847433</v>
+        <v>68.2106860437125</v>
       </c>
       <c r="C26" t="n">
-        <v>79.7506898985947</v>
+        <v>66.767714507923</v>
       </c>
       <c r="D26" t="n">
-        <v>87.596542870892</v>
+        <v>69.6536575795019</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -850,16 +847,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>66.5790404538871</v>
+        <v>71.5415272565547</v>
       </c>
       <c r="C27" t="n">
-        <v>63.6524209290054</v>
+        <v>69.2393895182127</v>
       </c>
       <c r="D27" t="n">
-        <v>69.5056599787687</v>
+        <v>73.8436649948966</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -867,223 +864,172 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>68.2230493525959</v>
+        <v>72.6710446733236</v>
       </c>
       <c r="C28" t="n">
-        <v>66.7801873237022</v>
+        <v>67.0329198414111</v>
       </c>
       <c r="D28" t="n">
-        <v>69.6659113814897</v>
+        <v>78.3091695052361</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>71.5415272565547</v>
+        <v>69.6986163471128</v>
       </c>
       <c r="C29" t="n">
-        <v>69.2399647889905</v>
+        <v>64.7552549988317</v>
       </c>
       <c r="D29" t="n">
-        <v>73.8430897241188</v>
+        <v>74.641977695394</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>72.6710446733236</v>
+        <v>81.5418454105147</v>
       </c>
       <c r="C30" t="n">
-        <v>67.0329198414111</v>
+        <v>77.0298013861814</v>
       </c>
       <c r="D30" t="n">
-        <v>78.3091695052361</v>
+        <v>86.0538894348479</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>69.6986163471128</v>
+        <v>57.3284758980314</v>
       </c>
       <c r="C31" t="n">
-        <v>64.7552549988317</v>
+        <v>49.6406453132361</v>
       </c>
       <c r="D31" t="n">
-        <v>74.641977695394</v>
+        <v>65.0163064828266</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>81.5418454105147</v>
+        <v>76.571814889122</v>
       </c>
       <c r="C32" t="n">
-        <v>77.0298013861814</v>
+        <v>70.6117495638275</v>
       </c>
       <c r="D32" t="n">
-        <v>86.0538894348479</v>
+        <v>82.5318802144165</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>57.3284758980314</v>
+        <v>68.3190222935995</v>
       </c>
       <c r="C33" t="n">
-        <v>49.6406453132361</v>
+        <v>62.7725189461338</v>
       </c>
       <c r="D33" t="n">
-        <v>65.0163064828266</v>
+        <v>73.8655256410651</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>76.571814889122</v>
+        <v>60.7691968998979</v>
       </c>
       <c r="C34" t="n">
-        <v>70.6117495638275</v>
+        <v>53.2964286332663</v>
       </c>
       <c r="D34" t="n">
-        <v>82.5318802144165</v>
+        <v>68.2419651665295</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>68.3190222935995</v>
+        <v>60.6507362007239</v>
       </c>
       <c r="C35" t="n">
-        <v>62.7725189461338</v>
+        <v>56.9227438052566</v>
       </c>
       <c r="D35" t="n">
-        <v>73.8655256410651</v>
+        <v>64.3787285961912</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>60.7691968998979</v>
+        <v>73.799243065225</v>
       </c>
       <c r="C36" t="n">
-        <v>53.2964286332663</v>
+        <v>68.9277869442202</v>
       </c>
       <c r="D36" t="n">
-        <v>68.2419651665295</v>
+        <v>78.6706991862297</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>60.6507362007239</v>
+        <v>63.6399135871967</v>
       </c>
       <c r="C37" t="n">
-        <v>56.9227438052566</v>
+        <v>60.7151665904094</v>
       </c>
       <c r="D37" t="n">
-        <v>64.3787285961912</v>
+        <v>66.5646605839841</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="n">
-        <v>73.8494994443583</v>
-      </c>
-      <c r="C38" t="n">
-        <v>68.9888192472245</v>
-      </c>
-      <c r="D38" t="n">
-        <v>78.7101796414921</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="n">
-        <v>82.5079657388237</v>
-      </c>
-      <c r="C39" t="n">
-        <v>78.5050343978621</v>
-      </c>
-      <c r="D39" t="n">
-        <v>86.5108970797853</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="n">
-        <v>63.6399135871967</v>
-      </c>
-      <c r="C40" t="n">
-        <v>60.7151665904094</v>
-      </c>
-      <c r="D40" t="n">
-        <v>66.5646605839841</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -32,7 +32,9 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
+    <t xml:space="preserve">**Global**: 
+Implemented by 
+All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -68,10 +70,14 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**: 
+All other HICs and 
+not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**: 
+Some countries (e.g. EU, UK, Brazil) 
+and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -425,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8161485502559</v>
+        <v>73.7967025168347</v>
       </c>
       <c r="C2" t="n">
-        <v>72.4542861110033</v>
+        <v>72.4340081020134</v>
       </c>
       <c r="D2" t="n">
-        <v>75.1780109895084</v>
+        <v>75.1593969316559</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -595,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>76.7816309654674</v>
+        <v>76.7147562865926</v>
       </c>
       <c r="C12" t="n">
-        <v>72.3067698657709</v>
+        <v>72.2222521958067</v>
       </c>
       <c r="D12" t="n">
-        <v>81.2564920651638</v>
+        <v>81.2072603773784</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -629,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>69.211130206042</v>
+        <v>69.2050626917897</v>
       </c>
       <c r="C14" t="n">
-        <v>67.7830711918507</v>
+        <v>67.7760289281493</v>
       </c>
       <c r="D14" t="n">
-        <v>70.6391892202333</v>
+        <v>70.6340964554302</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -799,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>69.4644695949361</v>
+        <v>69.4959084422999</v>
       </c>
       <c r="C24" t="n">
-        <v>64.5975635112594</v>
+        <v>64.6018708768405</v>
       </c>
       <c r="D24" t="n">
-        <v>74.3313756786127</v>
+        <v>74.3899460077592</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -32,9 +32,7 @@
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**: 
-Implemented by 
-All other countries</t>
+    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -70,14 +68,10 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**: 
-All other HICs and 
-not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**: 
-Some countries (e.g. EU, UK, Brazil) 
-and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -431,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.7967025168347</v>
+        <v>73.8161485502559</v>
       </c>
       <c r="C2" t="n">
-        <v>72.4340081020134</v>
+        <v>72.4542861110033</v>
       </c>
       <c r="D2" t="n">
-        <v>75.1593969316559</v>
+        <v>75.1780109895084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -601,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>76.7147562865926</v>
+        <v>76.7816309654674</v>
       </c>
       <c r="C12" t="n">
-        <v>72.2222521958067</v>
+        <v>72.3067698657709</v>
       </c>
       <c r="D12" t="n">
-        <v>81.2072603773784</v>
+        <v>81.2564920651638</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -635,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>69.2050626917897</v>
+        <v>69.211130206042</v>
       </c>
       <c r="C14" t="n">
-        <v>67.7760289281493</v>
+        <v>67.7830711918507</v>
       </c>
       <c r="D14" t="n">
-        <v>70.6340964554302</v>
+        <v>70.6391892202333</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -805,13 +799,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>69.4959084422999</v>
+        <v>69.4644695949361</v>
       </c>
       <c r="C24" t="n">
-        <v>64.6018708768405</v>
+        <v>64.5975635112594</v>
       </c>
       <c r="D24" t="n">
-        <v>74.3899460077592</v>
+        <v>74.3313756786127</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -612,13 +615,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>67.3083606323479</v>
+        <v>83.8567662269365</v>
       </c>
       <c r="C13" t="n">
-        <v>64.3592136887325</v>
+        <v>79.7610338864347</v>
       </c>
       <c r="D13" t="n">
-        <v>70.2575075759634</v>
+        <v>87.9524985674384</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -626,220 +629,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>69.211130206042</v>
+        <v>67.3083606323479</v>
       </c>
       <c r="C14" t="n">
-        <v>67.7830711918507</v>
+        <v>64.3592136887325</v>
       </c>
       <c r="D14" t="n">
-        <v>70.6391892202333</v>
+        <v>70.2575075759634</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>71.4499257805162</v>
+        <v>69.211130206042</v>
       </c>
       <c r="C15" t="n">
-        <v>69.1652730389077</v>
+        <v>67.7830711918507</v>
       </c>
       <c r="D15" t="n">
-        <v>73.7345785221246</v>
+        <v>70.6391892202333</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>72.1070134661706</v>
+        <v>71.4499257805162</v>
       </c>
       <c r="C16" t="n">
-        <v>66.9003210364828</v>
+        <v>69.1652730389077</v>
       </c>
       <c r="D16" t="n">
-        <v>77.3137058958585</v>
+        <v>73.7345785221246</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>72.6487986982464</v>
+        <v>72.1070134661706</v>
       </c>
       <c r="C17" t="n">
-        <v>68.0505028298208</v>
+        <v>66.9003210364828</v>
       </c>
       <c r="D17" t="n">
-        <v>77.2470945666719</v>
+        <v>77.3137058958585</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>81.4559369018766</v>
+        <v>72.6487986982464</v>
       </c>
       <c r="C18" t="n">
-        <v>76.2487277219821</v>
+        <v>68.0505028298208</v>
       </c>
       <c r="D18" t="n">
-        <v>86.663146081771</v>
+        <v>77.2470945666719</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>66.0300971183849</v>
+        <v>81.4559369018766</v>
       </c>
       <c r="C19" t="n">
-        <v>58.9727226802876</v>
+        <v>76.2487277219821</v>
       </c>
       <c r="D19" t="n">
-        <v>73.0874715564823</v>
+        <v>86.663146081771</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.4985235226275</v>
+        <v>66.0300971183849</v>
       </c>
       <c r="C20" t="n">
-        <v>61.9953384240454</v>
+        <v>58.9727226802876</v>
       </c>
       <c r="D20" t="n">
-        <v>75.0017086212096</v>
+        <v>73.0874715564823</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>70.015186642168</v>
+        <v>68.4985235226275</v>
       </c>
       <c r="C21" t="n">
-        <v>64.6317918229005</v>
+        <v>61.9953384240454</v>
       </c>
       <c r="D21" t="n">
-        <v>75.3985814614355</v>
+        <v>75.0017086212096</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>56.3494745997933</v>
+        <v>70.015186642168</v>
       </c>
       <c r="C22" t="n">
-        <v>48.5417962203827</v>
+        <v>64.6317918229005</v>
       </c>
       <c r="D22" t="n">
-        <v>64.1571529792038</v>
+        <v>75.3985814614355</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>66.1253305020267</v>
+        <v>56.3494745997933</v>
       </c>
       <c r="C23" t="n">
-        <v>62.5272644956226</v>
+        <v>48.5417962203827</v>
       </c>
       <c r="D23" t="n">
-        <v>69.7233965084307</v>
+        <v>64.1571529792038</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>69.4644695949361</v>
+        <v>66.1253305020267</v>
       </c>
       <c r="C24" t="n">
-        <v>64.5975635112594</v>
+        <v>62.5272644956226</v>
       </c>
       <c r="D24" t="n">
-        <v>74.3313756786127</v>
+        <v>69.7233965084307</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>66.5790404538871</v>
+        <v>69.4644695949361</v>
       </c>
       <c r="C25" t="n">
-        <v>63.6524209290054</v>
+        <v>64.5975635112594</v>
       </c>
       <c r="D25" t="n">
-        <v>69.5056599787687</v>
+        <v>74.3313756786127</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>68.2106860437125</v>
+        <v>83.6736163847433</v>
       </c>
       <c r="C26" t="n">
-        <v>66.767714507923</v>
+        <v>79.7506898985947</v>
       </c>
       <c r="D26" t="n">
-        <v>69.6536575795019</v>
+        <v>87.596542870892</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>71.5415272565547</v>
+        <v>66.5790404538871</v>
       </c>
       <c r="C27" t="n">
-        <v>69.2393895182127</v>
+        <v>63.6524209290054</v>
       </c>
       <c r="D27" t="n">
-        <v>73.8436649948966</v>
+        <v>69.5056599787687</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -864,172 +867,223 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>72.6710446733236</v>
+        <v>68.2106860437125</v>
       </c>
       <c r="C28" t="n">
-        <v>67.0329198414111</v>
+        <v>66.767714507923</v>
       </c>
       <c r="D28" t="n">
-        <v>78.3091695052361</v>
+        <v>69.6536575795019</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>69.6986163471128</v>
+        <v>71.5415272565547</v>
       </c>
       <c r="C29" t="n">
-        <v>64.7552549988317</v>
+        <v>69.2393895182127</v>
       </c>
       <c r="D29" t="n">
-        <v>74.641977695394</v>
+        <v>73.8436649948966</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>81.5418454105147</v>
+        <v>72.6710446733236</v>
       </c>
       <c r="C30" t="n">
-        <v>77.0298013861814</v>
+        <v>67.0329198414111</v>
       </c>
       <c r="D30" t="n">
-        <v>86.0538894348479</v>
+        <v>78.3091695052361</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>57.3284758980314</v>
+        <v>69.6986163471128</v>
       </c>
       <c r="C31" t="n">
-        <v>49.6406453132361</v>
+        <v>64.7552549988317</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0163064828266</v>
+        <v>74.641977695394</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>76.571814889122</v>
+        <v>81.5418454105147</v>
       </c>
       <c r="C32" t="n">
-        <v>70.6117495638275</v>
+        <v>77.0298013861814</v>
       </c>
       <c r="D32" t="n">
-        <v>82.5318802144165</v>
+        <v>86.0538894348479</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>68.3190222935995</v>
+        <v>57.3284758980314</v>
       </c>
       <c r="C33" t="n">
-        <v>62.7725189461338</v>
+        <v>49.6406453132361</v>
       </c>
       <c r="D33" t="n">
-        <v>73.8655256410651</v>
+        <v>65.0163064828266</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>60.7691968998979</v>
+        <v>76.571814889122</v>
       </c>
       <c r="C34" t="n">
-        <v>53.2964286332663</v>
+        <v>70.6117495638275</v>
       </c>
       <c r="D34" t="n">
-        <v>68.2419651665295</v>
+        <v>82.5318802144165</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>60.6507362007239</v>
+        <v>68.3190222935995</v>
       </c>
       <c r="C35" t="n">
-        <v>56.9227438052566</v>
+        <v>62.7725189461338</v>
       </c>
       <c r="D35" t="n">
-        <v>64.3787285961912</v>
+        <v>73.8655256410651</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>73.799243065225</v>
+        <v>60.7691968998979</v>
       </c>
       <c r="C36" t="n">
-        <v>68.9277869442202</v>
+        <v>53.2964286332663</v>
       </c>
       <c r="D36" t="n">
-        <v>78.6706991862297</v>
+        <v>68.2419651665295</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60.6507362007239</v>
+      </c>
+      <c r="C37" t="n">
+        <v>56.9227438052566</v>
+      </c>
+      <c r="D37" t="n">
+        <v>64.3787285961912</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73.799243065225</v>
+      </c>
+      <c r="C38" t="n">
+        <v>68.9277869442202</v>
+      </c>
+      <c r="D38" t="n">
+        <v>78.6706991862297</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
+        <v>82.5079657388237</v>
+      </c>
+      <c r="C39" t="n">
+        <v>78.5050343978621</v>
+      </c>
+      <c r="D39" t="n">
+        <v>86.5108970797853</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="n">
         <v>63.6399135871967</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>60.7151665904094</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>66.5646605839841</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
